--- a/CLE3_T3G5/configs_prog2.xlsx
+++ b/CLE3_T3G5/configs_prog2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis1\Documents\ubuntu_shared\CLE\CLE_2022_2023\CLE3_T3G5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5066E079-9BCD-47CD-BDAE-D7BB2209A731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABEA98A-6424-444F-9D18-14D02A56BD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D3F91F4-B404-421F-A1CF-5244EAEDD666}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D3F91F4-B404-421F-A1CF-5244EAEDD666}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="10">
   <si>
     <t>blockDimX</t>
   </si>
@@ -55,6 +60,12 @@
   </si>
   <si>
     <t>Time (s)</t>
+  </si>
+  <si>
+    <t>Mean(s)</t>
+  </si>
+  <si>
+    <t>SD(s)</t>
   </si>
 </sst>
 </file>
@@ -96,7 +107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -223,11 +234,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -288,6 +308,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,21 +629,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8229D8-8ECD-4077-BCFB-46B3A1A858CA}">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="19"/>
-    <col min="2" max="3" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="19"/>
+    <col min="2" max="3" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19">
         <v>0</v>
       </c>
@@ -643,7 +669,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -666,7 +692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -689,7 +715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="14">
         <v>4</v>
       </c>
@@ -712,7 +738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>8</v>
       </c>
@@ -735,7 +761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>16</v>
       </c>
@@ -758,7 +784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>1</v>
       </c>
@@ -781,7 +807,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>1</v>
       </c>
@@ -804,7 +830,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <v>2</v>
       </c>
@@ -827,7 +853,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13">
         <v>2</v>
       </c>
@@ -850,7 +876,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>4</v>
       </c>
@@ -873,7 +899,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>4</v>
       </c>
@@ -890,7 +916,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <v>4</v>
       </c>
@@ -907,7 +933,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>4</v>
       </c>
@@ -924,8 +950,8 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19">
         <v>1</v>
       </c>
@@ -945,7 +971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>1</v>
       </c>
@@ -962,7 +988,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>2</v>
       </c>
@@ -979,7 +1005,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>4</v>
       </c>
@@ -996,7 +1022,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>8</v>
       </c>
@@ -1013,7 +1039,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>1</v>
       </c>
@@ -1030,7 +1056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
         <v>1</v>
       </c>
@@ -1047,7 +1073,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="14">
         <v>1</v>
       </c>
@@ -1064,7 +1090,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="11">
         <v>2</v>
       </c>
@@ -1081,7 +1107,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>1</v>
       </c>
@@ -1098,7 +1124,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <v>1</v>
       </c>
@@ -1115,7 +1141,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>1</v>
       </c>
@@ -1132,7 +1158,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <v>1</v>
       </c>
@@ -1149,7 +1175,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" s="7">
         <v>1</v>
       </c>
@@ -1166,8 +1192,8 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="19">
         <v>2</v>
       </c>
@@ -1187,7 +1213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B33" s="17">
         <v>1</v>
       </c>
@@ -1204,7 +1230,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>4</v>
       </c>
@@ -1221,7 +1247,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B35" s="7">
         <v>8</v>
       </c>
@@ -1238,7 +1264,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B36" s="7">
         <v>1</v>
       </c>
@@ -1255,7 +1281,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B37" s="7">
         <v>1</v>
       </c>
@@ -1272,7 +1298,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38" s="7">
         <v>2</v>
       </c>
@@ -1289,7 +1315,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="11">
         <v>4</v>
       </c>
@@ -1306,7 +1332,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="20">
         <v>1</v>
       </c>
@@ -1323,7 +1349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41" s="7">
         <v>1</v>
       </c>
@@ -1340,7 +1366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B42" s="7">
         <v>1</v>
       </c>
@@ -1357,7 +1383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B43" s="6">
         <v>1</v>
       </c>
@@ -1374,14 +1400,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="19">
         <v>3</v>
       </c>
@@ -1401,7 +1427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" s="17">
         <v>1</v>
       </c>
@@ -1418,7 +1444,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>2</v>
       </c>
@@ -1435,7 +1461,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" s="8">
         <v>1</v>
       </c>
@@ -1452,7 +1478,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="11">
         <v>2</v>
       </c>
@@ -1469,7 +1495,7 @@
         <v>64.7</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
         <v>1</v>
       </c>
@@ -1486,7 +1512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B51" s="7">
         <v>1</v>
       </c>
@@ -1503,7 +1529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B52" s="6">
         <v>1</v>
       </c>
@@ -1520,14 +1546,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="19">
         <v>4</v>
       </c>
@@ -1547,7 +1573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B55" s="17">
         <v>1</v>
       </c>
@@ -1564,7 +1590,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B56" s="5">
         <v>2</v>
       </c>
@@ -1581,7 +1607,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B57" s="8">
         <v>1</v>
       </c>
@@ -1598,7 +1624,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="11">
         <v>1</v>
       </c>
@@ -1615,7 +1641,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B59" s="9">
         <v>1</v>
       </c>
@@ -1632,7 +1658,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60" s="6">
         <v>1</v>
       </c>
@@ -1649,7 +1675,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B61" s="7">
         <v>1</v>
       </c>
@@ -1666,7 +1692,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B62" s="7">
         <v>1</v>
       </c>
@@ -1683,8 +1709,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="19">
         <v>5</v>
       </c>
@@ -1704,7 +1730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B65" s="17">
         <v>1</v>
       </c>
@@ -1721,7 +1747,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B66" s="5">
         <v>2</v>
       </c>
@@ -1738,7 +1764,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B67" s="8">
         <v>1</v>
       </c>
@@ -1755,7 +1781,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="11">
         <v>1</v>
       </c>
@@ -1772,7 +1798,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B69" s="9">
         <v>1</v>
       </c>
@@ -1789,7 +1815,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B70" s="7">
         <v>1</v>
       </c>
@@ -1806,7 +1832,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B71" s="6">
         <v>1</v>
       </c>
@@ -1823,8 +1849,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="19">
         <v>6</v>
       </c>
@@ -1844,7 +1870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B74" s="17">
         <v>1</v>
       </c>
@@ -1861,7 +1887,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B75" s="5">
         <v>2</v>
       </c>
@@ -1878,7 +1904,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B76" s="8">
         <v>1</v>
       </c>
@@ -1895,7 +1921,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="11">
         <v>1</v>
       </c>
@@ -1912,7 +1938,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B78" s="9">
         <v>1</v>
       </c>
@@ -1929,7 +1955,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B79" s="7">
         <v>1</v>
       </c>
@@ -1946,7 +1972,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B80" s="6">
         <v>1</v>
       </c>
@@ -1963,8 +1989,8 @@
         <v>364</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="19">
         <v>7</v>
       </c>
@@ -1984,7 +2010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B83" s="17">
         <v>1</v>
       </c>
@@ -2001,7 +2027,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B84" s="5">
         <v>2</v>
       </c>
@@ -2018,7 +2044,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B85" s="8">
         <v>1</v>
       </c>
@@ -2035,7 +2061,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="11">
         <v>1</v>
       </c>
@@ -2052,7 +2078,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B87" s="9">
         <v>1</v>
       </c>
@@ -2069,7 +2095,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B88" s="7">
         <v>1</v>
       </c>
@@ -2086,7 +2112,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B89" s="6">
         <v>1</v>
       </c>
@@ -2103,8 +2129,8 @@
         <v>616</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="19">
         <v>8</v>
       </c>
@@ -2124,7 +2150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B92" s="17">
         <v>1</v>
       </c>
@@ -2141,7 +2167,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B93" s="5">
         <v>2</v>
       </c>
@@ -2158,7 +2184,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B94" s="11">
         <v>1</v>
       </c>
@@ -2175,7 +2201,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B95" s="9">
         <v>1</v>
       </c>
@@ -2192,7 +2218,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B96" s="6">
         <v>1</v>
       </c>
@@ -2209,8 +2235,8 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="19">
         <v>9</v>
       </c>
@@ -2230,7 +2256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B99" s="17">
         <v>1</v>
       </c>
@@ -2247,7 +2273,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B100" s="5">
         <v>2</v>
       </c>
@@ -2264,7 +2290,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B101" s="11">
         <v>1</v>
       </c>
@@ -2281,7 +2307,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B102" s="18">
         <v>1</v>
       </c>
@@ -2298,8 +2324,8 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="19">
         <v>10</v>
       </c>
@@ -2318,8 +2344,14 @@
       <c r="F104" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B105" s="18">
         <v>1</v>
       </c>
@@ -2333,7 +2365,35 @@
         <v>1</v>
       </c>
       <c r="F105" s="18">
-        <v>4.29</v>
+        <v>4.2942499999999999</v>
+      </c>
+      <c r="G105" s="22">
+        <f>AVERAGE(F105:F109)</f>
+        <v>4.2942149999999994</v>
+      </c>
+      <c r="H105" s="22">
+        <f>STDEVA(F105:F109)</f>
+        <v>5.3504999766388619E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F106" s="22">
+        <v>4.2940870000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F107" s="22">
+        <v>4.2945549999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F108" s="22">
+        <v>4.2947920000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F109" s="22">
+        <v>4.2933909999999997</v>
       </c>
     </row>
   </sheetData>
